--- a/Gangnam_edit2/Gangdonggu_edit2.xlsx
+++ b/Gangnam_edit2/Gangdonggu_edit2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangnam_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AC0AFE9316B732FFC2160B92B3DBE3FD502D2EEB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1E73DF0E-FF9D-4E4F-AEBE-E185FB60830E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="607">
   <si>
     <t>읍면동</t>
   </si>
@@ -250,9 +256,6 @@
     <t>천호동</t>
   </si>
   <si>
-    <t>강일동</t>
-  </si>
-  <si>
     <t>성내동</t>
   </si>
   <si>
@@ -271,48 +274,15 @@
     <t>암사동</t>
   </si>
   <si>
-    <t>(고덕)진로</t>
-  </si>
-  <si>
-    <t>강동이루美</t>
-  </si>
-  <si>
-    <t>강변그대家RiverView</t>
-  </si>
-  <si>
-    <t>강변그대家갤럭시</t>
-  </si>
-  <si>
     <t>강일리버파크10단지</t>
   </si>
   <si>
     <t>고덕리엔파크2단지</t>
   </si>
   <si>
-    <t>동남</t>
-  </si>
-  <si>
-    <t>래미안명일역솔베뉴</t>
-  </si>
-  <si>
     <t>우정</t>
   </si>
   <si>
-    <t>이연아마빌레(291-50)</t>
-  </si>
-  <si>
-    <t>천호역두산위브센티움</t>
-  </si>
-  <si>
-    <t>청구</t>
-  </si>
-  <si>
-    <t>초원동아(621)</t>
-  </si>
-  <si>
-    <t>하나플러스II</t>
-  </si>
-  <si>
     <t>한솔애리즈</t>
   </si>
   <si>
@@ -1838,17 +1808,60 @@
   </si>
   <si>
     <t>16세대</t>
+  </si>
+  <si>
+    <t>진로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동이루미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변그대가리버뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변그대가갤럭시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동남아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안솔베뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호이연아마빌레</t>
+  </si>
+  <si>
+    <t>두산위브센티움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔촌역청구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아(621)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나플러스2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1856,8 +1869,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1903,15 +1923,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1953,7 +1981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1985,9 +2013,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,6 +2065,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2194,14 +2258,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2439,7 +2508,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>596</v>
       </c>
       <c r="D2">
         <v>68</v>
@@ -2448,7 +2517,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2456,7 +2525,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>597</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -2465,61 +2534,61 @@
         <v>2005.1</v>
       </c>
       <c r="R3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="S3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="T3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="U3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="X3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Y3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="Z3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AA3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AD3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AE3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AF3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AG3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2527,7 +2596,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>598</v>
       </c>
       <c r="D4">
         <v>83</v>
@@ -2536,61 +2605,61 @@
         <v>2007.01</v>
       </c>
       <c r="R4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="T4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="U4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="X4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Y4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AD4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AE4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AF4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AG4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -2598,7 +2667,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="D5">
         <v>56</v>
@@ -2607,15 +2676,12 @@
         <v>2009.04</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>98</v>
@@ -2624,15 +2690,12 @@
         <v>2009.04</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>98</v>
@@ -2641,15 +2704,15 @@
         <v>2011.01</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>600</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2658,7 +2721,7 @@
         <v>2001.07</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -2666,7 +2729,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>601</v>
       </c>
       <c r="D9">
         <v>305</v>
@@ -2675,79 +2738,79 @@
         <v>2019.06</v>
       </c>
       <c r="R9" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="S9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="T9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="U9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="Y9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Z9" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AD9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AE9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AF9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AG9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AJ9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AK9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AL9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AM9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>120</v>
       </c>
@@ -2755,7 +2818,7 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>39</v>
@@ -2764,7 +2827,7 @@
         <v>1996.01</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>125</v>
       </c>
@@ -2772,7 +2835,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>602</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -2781,133 +2844,133 @@
         <v>2002.03</v>
       </c>
       <c r="R11" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="S11" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="T11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V11" t="s">
+        <v>249</v>
+      </c>
+      <c r="W11" t="s">
+        <v>254</v>
+      </c>
+      <c r="X11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AD11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU11" t="s">
         <v>266</v>
       </c>
-      <c r="X11" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>278</v>
-      </c>
       <c r="AV11" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="AW11" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="AX11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AY11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AZ11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BA11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="BB11" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="BC11" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="BD11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BF11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BG11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>138</v>
       </c>
@@ -2915,7 +2978,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>603</v>
       </c>
       <c r="D12">
         <v>108</v>
@@ -2924,87 +2987,87 @@
         <v>2004.09</v>
       </c>
       <c r="R12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="S12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="T12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="U12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="X12" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="Y12" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Z12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AD12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AE12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AF12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH12" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AI12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AJ12" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AK12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AL12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AM12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>604</v>
       </c>
       <c r="D13">
         <v>164</v>
@@ -3013,15 +3076,15 @@
         <v>1999.04</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="D14">
         <v>64</v>
@@ -3030,15 +3093,15 @@
         <v>1997.12</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>606</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -3047,105 +3110,102 @@
         <v>2004.09</v>
       </c>
       <c r="R15" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="S15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="T15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W15" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="X15" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y15" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Z15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC15" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AD15" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AE15" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AF15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI15" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AJ15" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AK15" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AL15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO15" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AP15" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AQ15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AR15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU15" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>161</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -3154,15 +3214,12 @@
         <v>2001.12</v>
       </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>162</v>
       </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>28</v>
@@ -3171,15 +3228,15 @@
         <v>2003.08</v>
       </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>1402</v>
@@ -3188,231 +3245,231 @@
         <v>2019.09</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O18">
         <v>113907</v>
       </c>
       <c r="P18">
-        <v>37.557477</v>
+        <v>37.557476999999999</v>
       </c>
       <c r="Q18">
-        <v>127.162213</v>
+        <v>127.16221299999999</v>
       </c>
       <c r="R18" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S18" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="T18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W18" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="X18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="Y18" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Z18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AD18" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AE18" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AF18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI18" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AJ18" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AK18" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AL18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO18" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AP18" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AQ18" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AR18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU18" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AV18" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="AW18" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="AX18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AY18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AZ18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BA18" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="BB18" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="BC18" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="BD18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BF18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BG18" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="BH18" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="BI18" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="BJ18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BK18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BL18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BM18" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="BN18" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="BO18" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="BP18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS18" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="BT18" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="BU18" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="BV18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY18" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>666</v>
@@ -3421,213 +3478,213 @@
         <v>2017.01</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O19">
         <v>108187</v>
       </c>
       <c r="P19">
-        <v>37.559113</v>
+        <v>37.559113000000004</v>
       </c>
       <c r="Q19">
         <v>127.148905</v>
       </c>
       <c r="R19" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S19" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="T19" t="s">
+        <v>246</v>
+      </c>
+      <c r="U19" t="s">
+        <v>247</v>
+      </c>
+      <c r="V19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W19" t="s">
         <v>258</v>
       </c>
-      <c r="U19" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" t="s">
-        <v>261</v>
-      </c>
-      <c r="W19" t="s">
-        <v>270</v>
-      </c>
       <c r="X19" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="Y19" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Z19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AD19" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AE19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AF19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI19" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AJ19" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AK19" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AL19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO19" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AP19" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AQ19" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AR19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU19" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AV19" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AW19" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="AX19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AY19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AZ19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BA19" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="BH19" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="BI19" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="BJ19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BK19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BL19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BM19" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="BN19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="BO19" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="BP19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS19" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="BT19" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="BU19" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="BV19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW19" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY19" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>425</v>
@@ -3636,31 +3693,31 @@
         <v>2019.12</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O20">
         <v>118210</v>
@@ -3672,187 +3729,187 @@
         <v>127.166684</v>
       </c>
       <c r="R20" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="T20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U20" t="s">
+        <v>247</v>
+      </c>
+      <c r="V20" t="s">
+        <v>249</v>
+      </c>
+      <c r="W20" t="s">
         <v>259</v>
       </c>
-      <c r="V20" t="s">
-        <v>261</v>
-      </c>
-      <c r="W20" t="s">
-        <v>271</v>
-      </c>
       <c r="X20" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="Y20" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Z20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC20" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AD20" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AE20" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AF20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI20" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AJ20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AK20" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AL20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO20" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AP20" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AQ20" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AR20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU20" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AV20" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AW20" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AX20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AY20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AZ20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BA20" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="BB20" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="BC20" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="BD20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BF20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BG20" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="BH20" t="s">
+        <v>503</v>
+      </c>
+      <c r="BI20" t="s">
         <v>515</v>
       </c>
-      <c r="BI20" t="s">
-        <v>527</v>
-      </c>
       <c r="BJ20" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="BK20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BL20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BM20" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="BN20" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="BO20" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="BP20" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="BQ20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="BT20" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="BU20" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="BV20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY20" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>39</v>
       </c>
@@ -3860,7 +3917,7 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -3869,231 +3926,231 @@
         <v>2001.04</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O21">
         <v>8379</v>
       </c>
       <c r="P21">
-        <v>37.550262</v>
+        <v>37.550261999999996</v>
       </c>
       <c r="Q21">
         <v>127.141096</v>
       </c>
       <c r="R21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="S21" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="T21" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="U21" t="s">
+        <v>248</v>
+      </c>
+      <c r="V21" t="s">
+        <v>249</v>
+      </c>
+      <c r="W21" t="s">
         <v>260</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC21" t="s">
         <v>261</v>
       </c>
-      <c r="W21" t="s">
-        <v>272</v>
-      </c>
-      <c r="X21" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI21" t="s">
         <v>260</v>
       </c>
-      <c r="AB21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AJ21" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB21" t="s">
         <v>273</v>
       </c>
-      <c r="AD21" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="BC21" t="s">
+        <v>485</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>504</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>516</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>548</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>266</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>505</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>578</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BY21" t="s">
         <v>353</v>
       </c>
-      <c r="AF21" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>418</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>432</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>466</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>278</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>497</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>516</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>528</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>549</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>560</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>260</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>278</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>517</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>590</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>258</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>259</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>365</v>
-      </c>
     </row>
-    <row r="22" spans="1:77">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -4102,223 +4159,223 @@
         <v>2004.1</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" t="s">
         <v>203</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
       </c>
       <c r="O22">
         <v>17555</v>
       </c>
       <c r="P22">
-        <v>37.542697</v>
+        <v>37.542696999999997</v>
       </c>
       <c r="Q22">
-        <v>127.142812</v>
+        <v>127.14281200000001</v>
       </c>
       <c r="R22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S22" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="T22" t="s">
+        <v>248</v>
+      </c>
+      <c r="U22" t="s">
+        <v>248</v>
+      </c>
+      <c r="V22" t="s">
+        <v>249</v>
+      </c>
+      <c r="W22" t="s">
         <v>260</v>
       </c>
-      <c r="U22" t="s">
+      <c r="X22" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI22" t="s">
         <v>260</v>
       </c>
-      <c r="V22" t="s">
+      <c r="AJ22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>421</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>474</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>486</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>505</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>517</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM22" t="s">
         <v>261</v>
       </c>
-      <c r="W22" t="s">
-        <v>272</v>
-      </c>
-      <c r="X22" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>419</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>433</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>486</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>498</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>517</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>529</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>273</v>
-      </c>
       <c r="BN22" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="BO22" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="BP22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR22" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="BT22" t="s">
+        <v>567</v>
+      </c>
+      <c r="BU22" t="s">
         <v>579</v>
       </c>
-      <c r="BU22" t="s">
-        <v>591</v>
-      </c>
       <c r="BV22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX22" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY22" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:77">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>61</v>
       </c>
@@ -4326,7 +4383,7 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>44</v>
@@ -4335,231 +4392,231 @@
         <v>1997.12</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O23">
         <v>998</v>
       </c>
       <c r="P23">
-        <v>37.541239</v>
+        <v>37.541238999999997</v>
       </c>
       <c r="Q23">
         <v>127.1259</v>
       </c>
       <c r="R23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="T23" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="U23" t="s">
+        <v>248</v>
+      </c>
+      <c r="V23" t="s">
+        <v>250</v>
+      </c>
+      <c r="W23" t="s">
+        <v>261</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>468</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>409</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>487</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>506</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>518</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>261</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>539</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>550</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>261</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>580</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BY23" t="s">
         <v>260</v>
       </c>
-      <c r="V23" t="s">
-        <v>262</v>
-      </c>
-      <c r="W23" t="s">
-        <v>273</v>
-      </c>
-      <c r="X23" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>396</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>420</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>434</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>372</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>453</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>468</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>480</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>421</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>499</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>259</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>518</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>530</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>551</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>562</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>260</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>280</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>592</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>258</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>259</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>272</v>
-      </c>
     </row>
-    <row r="24" spans="1:77">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>111</v>
@@ -4568,231 +4625,231 @@
         <v>2002.05</v>
       </c>
       <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
         <v>116</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="s">
         <v>193</v>
       </c>
-      <c r="M24" t="s">
-        <v>205</v>
-      </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O24">
         <v>3317</v>
       </c>
       <c r="P24">
-        <v>37.529319</v>
+        <v>37.529319000000001</v>
       </c>
       <c r="Q24">
         <v>127.141981</v>
       </c>
       <c r="R24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="S24" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="T24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="V24" t="s">
+        <v>250</v>
+      </c>
+      <c r="W24" t="s">
         <v>262</v>
       </c>
-      <c r="W24" t="s">
-        <v>274</v>
-      </c>
       <c r="X24" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="Y24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Z24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AB24" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AC24" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AD24" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AE24" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AF24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AH24" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AI24" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AJ24" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AK24" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AL24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AP24" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AQ24" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AR24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT24" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AU24" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AV24" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="AW24" t="s">
+        <v>457</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA24" t="s">
         <v>469</v>
       </c>
-      <c r="AX24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>259</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>481</v>
-      </c>
       <c r="BB24" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="BC24" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="BD24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BF24" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="BG24" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="BH24" t="s">
+        <v>507</v>
+      </c>
+      <c r="BI24" t="s">
         <v>519</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM24" t="s">
         <v>531</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>543</v>
-      </c>
       <c r="BN24" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="BO24" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="BP24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR24" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS24" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="BT24" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="BU24" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="BV24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX24" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY24" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>240</v>
@@ -4801,231 +4858,231 @@
         <v>1980.01</v>
       </c>
       <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
         <v>117</v>
       </c>
-      <c r="G25" t="s">
-        <v>129</v>
-      </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="O25">
         <v>1299</v>
       </c>
       <c r="P25">
-        <v>37.52732</v>
+        <v>37.527320000000003</v>
       </c>
       <c r="Q25">
         <v>127.139752</v>
       </c>
       <c r="R25" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="S25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="T25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="U25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="V25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Y25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="Z25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AA25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AB25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AD25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AE25" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AF25" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AH25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI25" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AJ25" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AK25" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AL25" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AP25" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AQ25" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AR25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AT25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU25" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AV25" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="AW25" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA25" t="s">
         <v>470</v>
       </c>
-      <c r="AX25" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>482</v>
-      </c>
       <c r="BB25" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="BC25" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="BD25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BF25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BG25" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="BH25" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="BI25" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="BJ25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BK25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BL25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BM25" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="BN25" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="BO25" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="BP25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BR25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS25" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="BT25" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="BU25" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="BV25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BX25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY25" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:77">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D26">
         <v>442</v>
@@ -5034,231 +5091,231 @@
         <v>2008.09</v>
       </c>
       <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
         <v>118</v>
       </c>
-      <c r="G26" t="s">
-        <v>130</v>
-      </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J26" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="s">
-        <v>186</v>
-      </c>
       <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="s">
         <v>195</v>
       </c>
-      <c r="M26" t="s">
-        <v>207</v>
-      </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O26">
         <v>22570</v>
       </c>
       <c r="P26">
-        <v>37.556495</v>
+        <v>37.556494999999998</v>
       </c>
       <c r="Q26">
-        <v>127.140819</v>
+        <v>127.14081899999999</v>
       </c>
       <c r="R26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="S26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="T26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="V26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="X26" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AB26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC26" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AD26" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AE26" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AF26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AH26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AI26" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AJ26" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AK26" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AL26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AP26" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AQ26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AR26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AS26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AT26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU26" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AV26" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AW26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AX26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AY26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AZ26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BA26" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="BB26" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="BC26" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="BD26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BE26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BF26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BG26" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="BH26" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="BI26" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="BJ26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BK26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BL26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BM26" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BN26" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO26" t="s">
         <v>553</v>
       </c>
-      <c r="BO26" t="s">
-        <v>565</v>
-      </c>
       <c r="BP26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS26" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="BT26" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="BU26" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="BV26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="BW26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY26" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="27" spans="1:77">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D27">
         <v>176</v>
@@ -5267,223 +5324,223 @@
         <v>1983.12</v>
       </c>
       <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="s">
-        <v>131</v>
-      </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" t="s">
         <v>175</v>
       </c>
-      <c r="K27" t="s">
-        <v>187</v>
-      </c>
       <c r="L27" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O27">
         <v>1283</v>
       </c>
       <c r="P27">
-        <v>37.54483</v>
+        <v>37.544829999999997</v>
       </c>
       <c r="Q27">
         <v>127.147668</v>
       </c>
       <c r="R27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="S27" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="V27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="W27" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="Z27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AB27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AC27" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AD27" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AE27" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AF27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AH27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AI27" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AJ27" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AK27" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="AL27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AO27" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AP27" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AQ27" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="AR27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AS27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AT27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AU27" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AV27" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="AW27" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AX27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AY27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AZ27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BA27" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="BB27" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="BC27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="BD27" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BE27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BF27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BG27" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="BH27" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="BI27" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="BJ27" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BK27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BL27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BM27" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="BN27" t="s">
+        <v>542</v>
+      </c>
+      <c r="BO27" t="s">
         <v>554</v>
       </c>
-      <c r="BO27" t="s">
-        <v>566</v>
-      </c>
       <c r="BP27" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BQ27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BR27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BS27" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="BT27" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="BU27" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="BV27" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BX27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BY27" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:77">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>117</v>
       </c>
@@ -5491,7 +5548,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <v>24</v>
@@ -5500,231 +5557,231 @@
         <v>2004.11</v>
       </c>
       <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="G28" t="s">
-        <v>132</v>
-      </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
         <v>176</v>
       </c>
-      <c r="K28" t="s">
-        <v>188</v>
-      </c>
       <c r="L28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O28">
         <v>14218</v>
       </c>
       <c r="P28">
-        <v>37.543211</v>
+        <v>37.543210999999999</v>
       </c>
       <c r="Q28">
         <v>127.139115</v>
       </c>
       <c r="R28" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="S28" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="T28" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="U28" t="s">
+        <v>248</v>
+      </c>
+      <c r="V28" t="s">
+        <v>249</v>
+      </c>
+      <c r="W28" t="s">
         <v>260</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>446</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>492</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>523</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>543</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>555</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>260</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>572</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>585</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>249</v>
+      </c>
+      <c r="BY28" t="s">
         <v>261</v>
       </c>
-      <c r="W28" t="s">
-        <v>272</v>
-      </c>
-      <c r="X28" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>384</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>401</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>424</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>439</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>458</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>472</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>491</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>504</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>418</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>535</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>555</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>567</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>259</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BS28" t="s">
-        <v>272</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>584</v>
-      </c>
-      <c r="BU28" t="s">
-        <v>597</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>258</v>
-      </c>
-      <c r="BW28" t="s">
-        <v>259</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY28" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="29" spans="1:77">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -5733,231 +5790,231 @@
         <v>1999.07</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" t="s">
         <v>177</v>
       </c>
-      <c r="K29" t="s">
-        <v>189</v>
-      </c>
       <c r="L29" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M29" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O29">
         <v>8675</v>
       </c>
       <c r="P29">
-        <v>37.526895</v>
+        <v>37.526895000000003</v>
       </c>
       <c r="Q29">
         <v>127.13091</v>
       </c>
       <c r="R29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="S29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="T29" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="U29" t="s">
+        <v>248</v>
+      </c>
+      <c r="V29" t="s">
+        <v>250</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC29" t="s">
         <v>260</v>
       </c>
-      <c r="V29" t="s">
-        <v>262</v>
-      </c>
-      <c r="W29" t="s">
-        <v>278</v>
-      </c>
-      <c r="X29" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI29" t="s">
         <v>260</v>
       </c>
-      <c r="AB29" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG29" t="s">
+      <c r="AJ29" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>447</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>493</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG29" t="s">
         <v>260</v>
       </c>
-      <c r="AH29" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>440</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT29" t="s">
+      <c r="BH29" t="s">
+        <v>510</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>524</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM29" t="s">
         <v>261</v>
       </c>
-      <c r="AU29" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>473</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>267</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>219</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>505</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>259</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>317</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>522</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>536</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>273</v>
-      </c>
       <c r="BN29" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="BO29" t="s">
+        <v>556</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>564</v>
+      </c>
+      <c r="BT29" t="s">
         <v>568</v>
       </c>
-      <c r="BP29" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>259</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>262</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>576</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>580</v>
-      </c>
       <c r="BU29" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="BV29" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="BW29" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BY29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:77">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D30">
         <v>18</v>
@@ -5966,231 +6023,231 @@
         <v>2003.12</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J30" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O30">
         <v>16159</v>
       </c>
       <c r="P30">
-        <v>37.533197</v>
+        <v>37.533197000000001</v>
       </c>
       <c r="Q30">
-        <v>127.122769</v>
+        <v>127.12276900000001</v>
       </c>
       <c r="R30" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="S30" t="s">
+        <v>242</v>
+      </c>
+      <c r="T30" t="s">
+        <v>246</v>
+      </c>
+      <c r="U30" t="s">
+        <v>247</v>
+      </c>
+      <c r="V30" t="s">
+        <v>249</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>448</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>480</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>494</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>266</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>511</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>525</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM30" t="s">
         <v>254</v>
       </c>
-      <c r="T30" t="s">
-        <v>258</v>
-      </c>
-      <c r="U30" t="s">
-        <v>259</v>
-      </c>
-      <c r="V30" t="s">
-        <v>261</v>
-      </c>
-      <c r="W30" t="s">
-        <v>272</v>
-      </c>
-      <c r="X30" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>403</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>441</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>460</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>474</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>259</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>413</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>492</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>506</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>259</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>278</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>523</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>537</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>266</v>
-      </c>
       <c r="BN30" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="BO30" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="BP30" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="BQ30" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR30" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BS30" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="BT30" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="BU30" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="BV30" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="BW30" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX30" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="BY30" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:77">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D31">
         <v>108</v>
@@ -6199,223 +6256,223 @@
         <v>2004.06</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O31">
         <v>11980</v>
       </c>
       <c r="P31">
-        <v>37.538326</v>
+        <v>37.538325999999998</v>
       </c>
       <c r="Q31">
         <v>127.136005</v>
       </c>
       <c r="R31" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="S31" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="T31" t="s">
+        <v>248</v>
+      </c>
+      <c r="U31" t="s">
+        <v>248</v>
+      </c>
+      <c r="V31" t="s">
+        <v>249</v>
+      </c>
+      <c r="W31" t="s">
         <v>260</v>
       </c>
-      <c r="U31" t="s">
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>430</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>368</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>396</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>481</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>495</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>512</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>558</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS31" t="s">
         <v>260</v>
       </c>
-      <c r="V31" t="s">
-        <v>261</v>
-      </c>
-      <c r="W31" t="s">
-        <v>272</v>
-      </c>
-      <c r="X31" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z31" t="s">
+      <c r="BT31" t="s">
+        <v>574</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>588</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>248</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BY31" t="s">
         <v>260</v>
       </c>
-      <c r="AA31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>337</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>475</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>408</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>493</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>507</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE31" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>268</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>524</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>538</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>546</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>218</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>570</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>260</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>261</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>272</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>586</v>
-      </c>
-      <c r="BU31" t="s">
-        <v>600</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>258</v>
-      </c>
-      <c r="BW31" t="s">
-        <v>260</v>
-      </c>
-      <c r="BX31" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY31" t="s">
-        <v>272</v>
-      </c>
     </row>
-    <row r="32" spans="1:77">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>173</v>
       </c>
@@ -6423,7 +6480,7 @@
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>40</v>
@@ -6432,223 +6489,225 @@
         <v>1990.06</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N32" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O32">
         <v>3125</v>
       </c>
       <c r="P32">
-        <v>37.53928</v>
+        <v>37.539279999999998</v>
       </c>
       <c r="Q32">
         <v>127.129057</v>
       </c>
       <c r="R32" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="S32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="T32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="U32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="V32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AA32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AB32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AC32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AD32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AE32" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AF32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AH32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AI32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AJ32" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AK32" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AL32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AO32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AP32" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AQ32" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AR32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AS32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AT32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AU32" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AV32" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AW32" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="AX32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AY32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AZ32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BA32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BB32" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="BC32" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="BD32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BE32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="BF32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BG32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BH32" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="BI32" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="BJ32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BK32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BL32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BM32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BN32" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="BO32" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="BP32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BQ32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BR32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BS32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BT32" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="BU32" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="BV32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BW32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BX32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="BY32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gangnam_edit2/Gangdonggu_edit2.xlsx
+++ b/Gangnam_edit2/Gangdonggu_edit2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangnam_edit2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataAnalysis\Paper_pycharm\Gangnam_edit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AC0AFE9316B732FFC2160B92B3DBE3FD502D2EEB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1E73DF0E-FF9D-4E4F-AEBE-E185FB60830E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA7C95-AD70-4351-811A-723064A4DADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="610">
   <si>
     <t>읍면동</t>
   </si>
@@ -1850,6 +1850,18 @@
   </si>
   <si>
     <t>하나플러스2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성내동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고덕동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2261,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2680,6 +2692,9 @@
       <c r="A6" s="1">
         <v>15</v>
       </c>
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -2694,6 +2709,9 @@
       <c r="A7" s="1">
         <v>29</v>
       </c>
+      <c r="B7" t="s">
+        <v>609</v>
+      </c>
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>607</v>
       </c>
       <c r="C15" t="s">
         <v>606</v>
@@ -3204,6 +3222,9 @@
       <c r="A16" s="1">
         <v>161</v>
       </c>
+      <c r="B16" t="s">
+        <v>607</v>
+      </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
@@ -3217,6 +3238,9 @@
     <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>607</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
